--- a/6.Mantel test/spec.xlsx
+++ b/6.Mantel test/spec.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XinhuGuo\Desktop\MEATL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XinhuGuo\Desktop\R-Code-of-statistical-analysis\6.Mantel test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42C6AC6-C70E-4F64-BAC2-388073EDE973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA440DE-6B2B-4899-A2A5-8696B9346267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,16 +27,20 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>M1</t>
+    <t>M1_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>M2</t>
+    <t>M1_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>M3</t>
+    <t>M2_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>M4</t>
+    <t>M2_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -373,15 +377,15 @@
   <dimension ref="A1:D73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="9.140625" style="2"/>
+    <col min="1" max="4" width="9.125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -395,7 +399,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0.39817715750498434</v>
       </c>
@@ -409,7 +413,7 @@
         <v>8.4448874964397611E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>0.40431967484285647</v>
       </c>
@@ -423,7 +427,7 @@
         <v>7.968240465050333E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>0.35294939893765725</v>
       </c>
@@ -437,7 +441,7 @@
         <v>0.10054980896468177</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>0.64342560553633221</v>
       </c>
@@ -451,7 +455,7 @@
         <v>5.4930795847750867E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>0.59553818453295859</v>
       </c>
@@ -465,7 +469,7 @@
         <v>8.6337885907513942E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>0.69263408010862182</v>
       </c>
@@ -479,7 +483,7 @@
         <v>6.9798031228784793E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>0.40541283143288914</v>
       </c>
@@ -493,7 +497,7 @@
         <v>9.8456747721756652E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>0.6600274136897113</v>
       </c>
@@ -507,7 +511,7 @@
         <v>8.1384391330420636E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>0.42079000139905798</v>
       </c>
@@ -521,7 +525,7 @@
         <v>7.8953504640208921E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>0.62395157803718115</v>
       </c>
@@ -535,7 +539,7 @@
         <v>9.014267185473411E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>0.40841685184345383</v>
       </c>
@@ -549,7 +553,7 @@
         <v>8.0676613305519021E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>0.6758641341546886</v>
       </c>
@@ -563,7 +567,7 @@
         <v>9.6937029431895957E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>0.37653384806287055</v>
       </c>
@@ -577,7 +581,7 @@
         <v>9.986672181625994E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>0.24154084045843188</v>
       </c>
@@ -591,7 +595,7 @@
         <v>0.34268692013825724</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>0.64228478381968546</v>
       </c>
@@ -605,7 +609,7 @@
         <v>8.595792089814458E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>0.44671794127606057</v>
       </c>
@@ -619,7 +623,7 @@
         <v>6.5834663570841195E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>0.42037764421939333</v>
       </c>
@@ -633,7 +637,7 @@
         <v>8.660262174057072E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>0.64712023664520624</v>
       </c>
@@ -647,7 +651,7 @@
         <v>0.11636506003132069</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>0.60612672368650722</v>
       </c>
@@ -661,7 +665,7 @@
         <v>7.9420492232501305E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>0.67884419551934827</v>
       </c>
@@ -675,7 +679,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>0.60213545672533142</v>
       </c>
@@ -689,7 +693,7 @@
         <v>9.0440211735963449E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>0.6493707314977879</v>
       </c>
@@ -703,7 +707,7 @@
         <v>9.8707100210472062E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>0.63397129186602874</v>
       </c>
@@ -717,7 +721,7 @@
         <v>0.10056874605037465</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>0.43989991338658452</v>
       </c>
@@ -731,7 +735,7 @@
         <v>8.6805889712250991E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>0.59808954157925276</v>
       </c>
@@ -745,7 +749,7 @@
         <v>0.12176940588314066</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>0.61406884755184943</v>
       </c>
@@ -759,7 +763,7 @@
         <v>0.10057729313662604</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>0.4326687458231232</v>
       </c>
@@ -773,7 +777,7 @@
         <v>0.24560035642682113</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>0.64513724458475841</v>
       </c>
@@ -787,7 +791,7 @@
         <v>9.4448829255459096E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>0.36280121872403287</v>
       </c>
@@ -801,7 +805,7 @@
         <v>0.11046994737328041</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>0.42108334143732373</v>
       </c>
@@ -815,7 +819,7 @@
         <v>7.9889137411261302E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>0.55957938630285997</v>
       </c>
@@ -829,7 +833,7 @@
         <v>0.17658523319584826</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>0.63434532566537383</v>
       </c>
@@ -843,7 +847,7 @@
         <v>9.1168472203646739E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>0.55768702499771083</v>
       </c>
@@ -857,7 +861,7 @@
         <v>0.16051643622378903</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>0.60669085386432675</v>
       </c>
@@ -871,7 +875,7 @@
         <v>0.13436550793115087</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>0.56211099585062241</v>
       </c>
@@ -885,7 +889,7 @@
         <v>0.10650069156293222</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>0.44390334400074211</v>
       </c>
@@ -899,7 +903,7 @@
         <v>7.3465980242103796E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>0.3901479915433404</v>
       </c>
@@ -913,7 +917,7 @@
         <v>5.6236786469344609E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>0.3785179550822691</v>
       </c>
@@ -927,7 +931,7 @@
         <v>5.8769366267664838E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>0.41185091297975995</v>
       </c>
@@ -941,7 +945,7 @@
         <v>8.4208024715807822E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>0.42577616474022645</v>
       </c>
@@ -955,7 +959,7 @@
         <v>5.0652885715412835E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>0.41925747057047991</v>
       </c>
@@ -969,7 +973,7 @@
         <v>5.8988400672674746E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>0.41655106813047443</v>
       </c>
@@ -983,7 +987,7 @@
         <v>5.009710277040149E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>0.44431118573598782</v>
       </c>
@@ -997,7 +1001,7 @@
         <v>8.0594866874550253E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>0.36594702871132873</v>
       </c>
@@ -1011,7 +1015,7 @@
         <v>3.9216559091920768E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>0.39917391304347827</v>
       </c>
@@ -1025,7 +1029,7 @@
         <v>7.2652173913043475E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>0.2761300250048086</v>
       </c>
@@ -1039,7 +1043,7 @@
         <v>2.8851702250432775E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>0.40250634645605837</v>
       </c>
@@ -1053,7 +1057,7 @@
         <v>0.13124068179070797</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>0.26111963190184051</v>
       </c>
@@ -1067,7 +1071,7 @@
         <v>3.4624233128834357E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>0.39450592885375496</v>
       </c>
@@ -1081,7 +1085,7 @@
         <v>8.0830039525691705E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>0.42102354841452011</v>
       </c>
@@ -1095,7 +1099,7 @@
         <v>7.8296352971180816E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>0.46355320949349238</v>
       </c>
@@ -1109,7 +1113,7 @@
         <v>7.9703429101019463E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>0.53030498558953842</v>
       </c>
@@ -1123,7 +1127,7 @@
         <v>8.7538176969071277E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>0.58359359557224744</v>
       </c>
@@ -1137,7 +1141,7 @@
         <v>6.2818738881201819E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>0.43281625518898842</v>
       </c>
@@ -1151,7 +1155,7 @@
         <v>5.6718374481101161E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>0.38260598746447622</v>
       </c>
@@ -1165,7 +1169,7 @@
         <v>7.774360571495309E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>0.53467965404316065</v>
       </c>
@@ -1179,7 +1183,7 @@
         <v>3.1194894617516164E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>0.19590093936806149</v>
       </c>
@@ -1193,7 +1197,7 @@
         <v>0.1226729291204099</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>0.5692127106564937</v>
       </c>
@@ -1207,7 +1211,7 @@
         <v>3.5088454766496184E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>0.35906621525864107</v>
       </c>
@@ -1221,7 +1225,7 @@
         <v>9.2551767577356114E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>0.60343951202982038</v>
       </c>
@@ -1235,7 +1239,7 @@
         <v>3.5835310064384951E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>0.31127893613528157</v>
       </c>
@@ -1249,7 +1253,7 @@
         <v>0.1091364307995403</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>0.36624873452223344</v>
       </c>
@@ -1263,7 +1267,7 @@
         <v>2.6516626430963322E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>0.32147375079063883</v>
       </c>
@@ -1277,7 +1281,7 @@
         <v>9.6418406072106264E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>0.38283854268794854</v>
       </c>
@@ -1291,7 +1295,7 @@
         <v>2.207929722734225E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>0.47144133896652585</v>
       </c>
@@ -1305,7 +1309,7 @@
         <v>0.13507474813129672</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>0.38691045251752709</v>
       </c>
@@ -1319,7 +1323,7 @@
         <v>2.1391013384321225E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>0.48955356064570671</v>
       </c>
@@ -1333,7 +1337,7 @@
         <v>7.5319029024596432E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>0.54380232795589134</v>
       </c>
@@ -1347,7 +1351,7 @@
         <v>5.6238513375536044E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>0.30992983028720628</v>
       </c>
@@ -1361,7 +1365,7 @@
         <v>0.14800913838120106</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>0.55018693107932382</v>
       </c>
@@ -1375,7 +1379,7 @@
         <v>5.510403120936281E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>0.43147041976924966</v>
       </c>
@@ -1389,7 +1393,7 @@
         <v>0.11287946976515834</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>0.57987146637543585</v>
       </c>
